--- a/data/output/FV2410_FV2404/UTILMD/55171.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55171.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10892" uniqueCount="680">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10913" uniqueCount="680">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2195,6 +2195,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U479" totalsRowShown="0">
+  <autoFilter ref="A1:U479"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2484,7 +2514,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U479"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -25708,5 +25741,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55171.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55171.xlsx
@@ -4039,7 +4039,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6573,7 +6573,7 @@
         <v>626</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6735,7 +6735,7 @@
         <v>627</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -6939,7 +6939,7 @@
         <v>629</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7143,7 +7143,7 @@
         <v>631</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7347,7 +7347,7 @@
         <v>633</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7551,7 +7551,7 @@
         <v>634</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7951,7 +7951,7 @@
         <v>636</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8155,7 +8155,7 @@
         <v>638</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -8717,7 +8717,7 @@
         <v>639</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -9787,7 +9787,7 @@
         <v>640</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -9935,7 +9935,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -10099,7 +10099,7 @@
         <v>641</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -10319,7 +10319,7 @@
         <v>643</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -10523,7 +10523,7 @@
         <v>644</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11273,7 +11273,7 @@
         <v>645</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -11579,7 +11579,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -11835,7 +11835,7 @@
         <v>646</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -12363,7 +12363,7 @@
         <v>648</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -12775,7 +12775,7 @@
         <v>649</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -12975,7 +12975,7 @@
         <v>650</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -13319,7 +13319,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -13689,7 +13689,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -13835,7 +13835,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -14207,7 +14207,7 @@
         <v>651</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -14511,7 +14511,7 @@
         <v>652</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -14659,7 +14659,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -14821,7 +14821,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -15229,7 +15229,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -15427,7 +15427,7 @@
         <v>653</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -15575,7 +15575,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -16553,7 +16553,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -16699,7 +16699,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -16855,7 +16855,7 @@
         <v>655</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -17307,7 +17307,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -17521,7 +17521,7 @@
         <v>656</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -17669,7 +17669,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -18647,7 +18647,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -18845,7 +18845,7 @@
         <v>657</v>
       </c>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -18993,7 +18993,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -19561,7 +19561,7 @@
         <v>658</v>
       </c>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -19709,7 +19709,7 @@
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -19873,7 +19873,7 @@
         <v>659</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -20029,7 +20029,7 @@
       </c>
       <c r="K314" s="2"/>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="K330" s="2"/>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21041,7 +21041,7 @@
         <v>661</v>
       </c>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -21255,7 +21255,7 @@
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="4"/>
-      <c r="M337" s="2" t="s">
+      <c r="M337" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N337" s="2" t="s">
@@ -21413,7 +21413,7 @@
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -21627,7 +21627,7 @@
         <v>662</v>
       </c>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -21885,7 +21885,7 @@
         <v>663</v>
       </c>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -22035,7 +22035,7 @@
         <v>664</v>
       </c>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -22253,7 +22253,7 @@
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22417,7 +22417,7 @@
         <v>666</v>
       </c>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -22583,7 +22583,7 @@
         <v>667</v>
       </c>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -22961,7 +22961,7 @@
         <v>669</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -23373,7 +23373,7 @@
         <v>670</v>
       </c>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -23573,7 +23573,7 @@
         <v>650</v>
       </c>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -23773,7 +23773,7 @@
         <v>671</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24131,7 +24131,7 @@
         <v>672</v>
       </c>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -24331,7 +24331,7 @@
         <v>673</v>
       </c>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -24589,7 +24589,7 @@
         <v>674</v>
       </c>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -24737,7 +24737,7 @@
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -24891,7 +24891,7 @@
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -25039,7 +25039,7 @@
         <v>675</v>
       </c>
       <c r="L410" s="4"/>
-      <c r="M410" s="2" t="s">
+      <c r="M410" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N410" s="2" t="s">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="K413" s="2"/>
       <c r="L413" s="4"/>
-      <c r="M413" s="2" t="s">
+      <c r="M413" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N413" s="2" t="s">
@@ -25521,7 +25521,7 @@
         <v>677</v>
       </c>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -25669,7 +25669,7 @@
       </c>
       <c r="K422" s="2"/>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="K425" s="2"/>
       <c r="L425" s="4"/>
-      <c r="M425" s="2" t="s">
+      <c r="M425" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N425" s="2" t="s">
@@ -25969,7 +25969,7 @@
       </c>
       <c r="K428" s="2"/>
       <c r="L428" s="4"/>
-      <c r="M428" s="2" t="s">
+      <c r="M428" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N428" s="2" t="s">
@@ -26127,7 +26127,7 @@
       </c>
       <c r="K431" s="2"/>
       <c r="L431" s="4"/>
-      <c r="M431" s="2" t="s">
+      <c r="M431" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N431" s="2" t="s">
@@ -26499,7 +26499,7 @@
         <v>674</v>
       </c>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -26647,7 +26647,7 @@
       </c>
       <c r="K441" s="2"/>
       <c r="L441" s="4"/>
-      <c r="M441" s="2" t="s">
+      <c r="M441" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N441" s="2" t="s">
@@ -26801,7 +26801,7 @@
       </c>
       <c r="K444" s="2"/>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -26947,7 +26947,7 @@
       </c>
       <c r="K447" s="2"/>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -27105,7 +27105,7 @@
       </c>
       <c r="K450" s="2"/>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -27261,7 +27261,7 @@
         <v>678</v>
       </c>
       <c r="L453" s="4"/>
-      <c r="M453" s="2" t="s">
+      <c r="M453" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N453" s="2" t="s">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="K459" s="2"/>
       <c r="L459" s="4"/>
-      <c r="M459" s="2" t="s">
+      <c r="M459" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N459" s="2" t="s">
@@ -27711,7 +27711,7 @@
         <v>680</v>
       </c>
       <c r="L462" s="4"/>
-      <c r="M462" s="2" t="s">
+      <c r="M462" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N462" s="2" t="s">
@@ -27859,7 +27859,7 @@
       </c>
       <c r="K465" s="2"/>
       <c r="L465" s="4"/>
-      <c r="M465" s="2" t="s">
+      <c r="M465" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N465" s="2" t="s">
@@ -28017,7 +28017,7 @@
       </c>
       <c r="K468" s="2"/>
       <c r="L468" s="4"/>
-      <c r="M468" s="2" t="s">
+      <c r="M468" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N468" s="2" t="s">
@@ -28175,7 +28175,7 @@
       </c>
       <c r="K471" s="2"/>
       <c r="L471" s="4"/>
-      <c r="M471" s="2" t="s">
+      <c r="M471" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N471" s="2" t="s">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="K474" s="2"/>
       <c r="L474" s="4"/>
-      <c r="M474" s="2" t="s">
+      <c r="M474" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N474" s="2" t="s">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="K477" s="2"/>
       <c r="L477" s="4"/>
-      <c r="M477" s="2" t="s">
+      <c r="M477" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N477" s="2"/>
